--- a/testcases/movies-testCases-noOutput 1.1.xlsx
+++ b/testcases/movies-testCases-noOutput 1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucchamberland/Downloads/luc/Karma AI/movies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DCAC6-579B-4347-93EE-A0992D4C56AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64963BD-750C-440A-B65E-22EE824E1ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="1280" yWindow="2580" windowWidth="19290" windowHeight="8970" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Test case #</t>
   </si>
@@ -169,13 +168,22 @@
   </si>
   <si>
     <t>out-of-scope msg: not familiar with TV shows</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>unit test done</t>
+  </si>
+  <si>
+    <t>unit test partially done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +210,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -252,6 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,11 +583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="142" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="31.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="11" customWidth="1"/>
@@ -580,7 +595,7 @@
     <col min="5" max="5" width="12.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -596,10 +611,12 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="46.5">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -613,10 +630,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -632,10 +651,12 @@
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="31">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -649,10 +670,12 @@
         <v>13</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="31">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -666,10 +689,12 @@
         <v>15</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="31">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -683,10 +708,12 @@
         <v>17</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -703,7 +730,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="31">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -720,7 +747,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -737,7 +764,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="31">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -754,7 +781,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -771,7 +798,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="31">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -788,7 +815,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -807,7 +834,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="31">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -826,7 +853,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -843,7 +870,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="31">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -860,7 +887,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -877,7 +904,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="31">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -894,7 +921,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -913,7 +940,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="31">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -932,5 +959,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testcases/movies-testCases-noOutput 1.1.xlsx
+++ b/testcases/movies-testCases-noOutput 1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64963BD-750C-440A-B65E-22EE824E1ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3019BC-DC02-4CD8-BC8F-C1EEB4115795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2580" windowWidth="19290" windowHeight="8970" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="3150" yWindow="2720" windowWidth="19290" windowHeight="8970" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Test case #</t>
   </si>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="142" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="142" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -727,7 +727,9 @@
         <v>17</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="31">
